--- a/doc/DA.77S-KH-DzoanXuanThanh.xlsx
+++ b/doc/DA.77S-KH-DzoanXuanThanh.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DACNTT2\DA2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3C5AF-B436-429B-8571-249C482D9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,9 +126,6 @@
     <t>Số ĐT: 0961202760</t>
   </si>
   <si>
-    <t>Doãn Xuân Thanh</t>
-  </si>
-  <si>
     <t>Email: dzoanxuanthanh@tdtu.edu.vn</t>
   </si>
   <si>
@@ -235,6 +231,53 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Times New Roman&quot;"/>
       </rPr>
+      <t>Chức năng đăng ký, đăng nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> (Bằng gmail sinh viên và tài khoản tự tạo)
+ - Đăng nhập ( đối với sinh viên kết nối giữa trang web và gmail sinh viên để đăng nhập thông qua đó)
+- Đăng ký thông qua tài khoản mật khẩu ở web ( Đối với người tuyển dụng hoặc người quản trị ) 
+Phân quyền cho các loại tài khoản </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng quản lý tài khoản, bài đăng của tất cả người dùng cho admin
+- Theo dõi hoạt động của tất cả tài khoản(sinh viên, nhà tuyển dụng,người quản trị,...)
+- Xem tất cả bài đăng của những nhà tuyển dụng
+Quản lý các loại công việc 
+- Thêm, sửa, xóa, xem các loại công việc (IT , Kế toán , ....)
+</t>
+  </si>
+  <si>
+    <t>Chức năng thông báo qua mail 
+- Quên mật khẩu
+- Thông báo đến người nộp đơn và người nhận đơn ứng tuyển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu công nghệ  
++ Docker : Để đóng gói dự án và có thể đem đi và hoạt động ở bất kì môi trường nào
++ CI/CD : Để tự động lấy code và chạy code trên máy chủ server
++ VPS : Máy chủ ảo nơi sẽ chứa code chung và cơ sở dữ liệu
++ NodeJS, Prisma (SQL Server) , React - TypeScript , 
+Khởi tạo project, liệt kê các chức năng cần có, tham khảo các trang web tương tự, vẽ sơ đồ usecase, sơ đồ class, ....
+Đăng ký server (Thuê máy ảo để đưa source code , cũng như chứa cơ sở dữ liệu trên đó) </t>
+  </si>
+  <si>
+    <t>Dzoãn Xuân Thanh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;"/>
+      </rPr>
       <t>Chức năng ứng tuyển dành cho ứng viên</t>
     </r>
     <r>
@@ -261,58 +304,14 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Times New Roman&quot;"/>
       </rPr>
-      <t xml:space="preserve"> ( Xem mình đã nộp vào những bài viết tuyển dụng nào)</t>
+      <t xml:space="preserve"> ( Xem mình đã nộp cv vào những bài viết tuyển dụng nào, thay đổi cv hoặc rút cv)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Times New Roman&quot;"/>
-      </rPr>
-      <t>Chức năng đăng ký, đăng nhập</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Times New Roman&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> (Bằng gmail sinh viên và tài khoản tự tạo)
- - Đăng nhập ( đối với sinh viên kết nối giữa trang web và gmail sinh viên để đăng nhập thông qua đó)
-- Đăng ký thông qua tài khoản mật khẩu ở web ( Đối với người tuyển dụng hoặc người quản trị ) 
-Phân quyền cho các loại tài khoản </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chức năng quản lý tài khoản, bài đăng của tất cả người dùng cho admin
-- Theo dõi hoạt động của tất cả tài khoản(sinh viên, nhà tuyển dụng,người quản trị,...)
-- Xem tất cả bài đăng của những nhà tuyển dụng
-Quản lý các loại công việc 
-- Thêm, sửa, xóa, xem các loại công việc (IT , Kế toán , ....)
-</t>
-  </si>
-  <si>
-    <t>Chức năng thông báo qua mail 
-- Quên mật khẩu
-- Thông báo đến người nộp đơn và người nhận đơn ứng tuyển</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm hiểu công nghệ  
-+ Docker : Để đóng gói dự án và có thể đem đi và hoạt động ở bất kì môi trường nào
-+ CI/CD : Để tự động lấy code và chạy code trên máy chủ server
-+ VPS : Máy chủ ảo nơi sẽ chứa code chung và cơ sở dữ liệu
-+ NodeJS, Prisma (SQL Server) , React - TypeScript , 
-Khởi tạo project, liệt kê các chức năng cần có, tham khảo các trang web tương tự, vẽ sơ đồ usecase, sơ đồ class, ....
-Đăng ký server (Thuê máy ảo để đưa source code , cũng như chứa cơ sở dữ liệu trên đó) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -320,7 +319,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -440,15 +439,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -502,7 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +844,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="98.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" customWidth="1"/>
+    <col min="5" max="5" width="98.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.796875" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.8">
@@ -1163,14 +1153,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1200,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1349,7 +1339,7 @@
         <v>44864</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>17</v>
@@ -1394,7 +1384,7 @@
         <v>44871</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>17</v>
@@ -1423,7 +1413,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="100.8">
+    <row r="17" spans="1:27" ht="84">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -1439,7 +1429,7 @@
         <v>44878</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>17</v>
@@ -1484,7 +1474,7 @@
         <v>44885</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>17</v>
@@ -1529,7 +1519,7 @@
         <v>44892</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>17</v>
@@ -1558,7 +1548,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="50.4">
+    <row r="20" spans="1:27" ht="67.2">
       <c r="A20" s="10">
         <v>6</v>
       </c>
@@ -1574,7 +1564,7 @@
         <v>44899</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>17</v>
@@ -1660,7 +1650,7 @@
         <v>44913</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>17</v>
@@ -1705,7 +1695,7 @@
         <v>44920</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>17</v>
@@ -1750,7 +1740,7 @@
         <v>44927</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>17</v>
@@ -1795,7 +1785,7 @@
         <v>44934</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>17</v>
@@ -1840,7 +1830,7 @@
         <v>44941</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>17</v>
@@ -1885,7 +1875,7 @@
         <v>44948</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>17</v>
@@ -1930,7 +1920,7 @@
         <v>44955</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>17</v>
